--- a/biology/Zoologie/Holcosus/Holcosus.xlsx
+++ b/biology/Zoologie/Holcosus/Holcosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holcosus est un genre de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holcosus est un genre de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent du Sud de l'Amérique du Nord au Nord de l'Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent du Sud de l'Amérique du Nord au Nord de l'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 avril 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 avril 2013) :
 Holcosus anomalus Echternacht, 1977
 Holcosus bridgesii (Cope, 1869)
 Holcosus chaitzami Stuart, 1942
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1862 : Synopsis of the Species of Holeosus and Ameiva, with Diagnoses of new West Indian and South American Colubridae. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 60-81 (texte intégral).</t>
         </is>
